--- a/deuChatbot/research_result/results/sem_score/sem_version_2(3500_500).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_2(3500_500).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6286,61 +6286,3614 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 주로 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 종목별 배점 비율이 다음과 같습니다:
+1. 기초디자인:
+   - 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - 실기주제: 주제A와 주제B 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+   - 화지크기: 켄트지3절
+   - 시간: 5시간
+2. 사고의 전환:
+   - 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - 실기주제: 주제A와 주제B 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+   - 화지크기: 켄트지2절
+   - 시간: 5시간
+각 종목은 70%의 배점을 받습니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.8070536926388741</v>
+        <v>0.9311841726303101</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+- 모집단위: 시각디자인 / 산업디자인 / 공예디자인 중 선택 가능합니다.
+- 실기종목(택1): 기초디자인, 사고의 전환 중 하나를 선택해야 합니다.
+준비물:
+볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+실기주제: 
+주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는:
+- 기초디자인의 경우: 잠자리와 저울
+- 사고의 전환의 경우: 콜라병과 계절
+화지크기 및 시험기간:
+- 화지 크기는 켄트지 3절입니다.
+- 시간은 5시간입니다.
+이러한 준비물과 주제, 화지 크기를 가지고 당일 실기시험에 임해야 합니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.7551574563980102</v>
+        <v>0.9109111428260803</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교 경기지도학과의 나군 실기/실적(경기실적우수자전형)에서는 다음과 같은 종목별 인정대회가 있습니다:
+1. 배드민턴 (남)
+   - 등급 1: 현·전 국가대표 (점수 700)
+   - 등급 2: 2023년도 전국대회 개인전 3위 이내 입상자 (점수 600)
+   - 등급 3: 국가대표 후보선수(주니어대표 경력 합숙훈련 3년 이상) 
+     2023년도 전국대회 단체전 1위 입상자
+     2021~2022년도 전국대회 개인전 2위 이내 입상자 (점수 500)
+   - 등급 4: 국가대표 후보선수(주니어대표 경력 합숙훈련 2년 이상) 
+     2023년도 전국대회 단체전 2~3위 입상자
+     2023년도 전국대회 개인전 8강 입상자
+     2021~2022년도 전국대회 개인전 3위 입상자 (점수 400)
+   - 등급 5: 국가대표 후보선수(주니어대표 경력 합숙훈련 1년 이상) 
+     2023년도 전국대회 단체전 8강 이내 입상자
+     2023년도 전국대회 개인전 16강 입상자
+     2021~2022년도 전국대회 개인전 8강 입상자
+     2023년도 광역시·도 대회 개인전 4강 이내 입상자 (점수 300)
+   - 등급 6: 2023년도 전국대회 개인전 32강 입상자
+     2021~2022년도 전국대회 개인전 16강 입상자
+     2023년도 전국대회 단체전 16강 이내 입상자
+     2021~2022년도 광역시·도 대회 개인전 8강 이내 입상자 (점수 0)
+2. 축구 (남)
+   - 등급 1: 현·전 청소년대표, 국가대표
+     2023년 전국대회 우승 및 준우승 입상자 중 경기출전 70% 이상 선수
+     2023년 권역별고교축구리그 우승 입상자 중 경기출전 70% 이상 선수
+     2023년 K리그 U-18 챔피언십의 4위 이내 입상자 중 경기출전 70% 이상 선수 (점수 700)
+   - 등급 2: 2023년 전국대회 우승 및 준우승 입상자 중 경기출전 60% 이상 선수
+     2023년 전국대회 4강 입상자 중 경기출전 70% 이상 선수
+     2023년 권역별고교축구리그 2위 입상자 중 경기출전 70% 이상 선수
+     2023년 K리그 U-18 챔피언십의 8위 이내입상자 중 경기출전 70% 이상 선수 (점수 600)
+   - 등급 3: 2023년 전국대회 4강 입상자 중 경기출전 60% 이상 선수
+     2023년 전국대회 8강 입상자 중 경기출전 80% 이상 선수
+     2023년 권역별고교축구리그 3위 입상자 중 경기출전 70% 이상 선수
+     2023년 K리그 U-18 챔피언십의 경기출전 70% 이상 선수 (점수 500)
+   - 등급 4: 2023년 전국대회 4강 입상자 중 경기출전 50% 이상 선수
+     2023년 전국대회 8강 입상자 중 경기출전 70% 이상 선수
+     2023년 권역별고교축구리그 4위 이내 및 K리그 U-18 챔피언십의 경기출전 40% 이상 선수 (점수 400)
+   - 등급 5: 2023년 전국대회 4강 입상자 중 경기출전 40% 이상 선수
+     2023년 전국대회 8강 입상자 중 경기출전 60% 이상 선수
+     2023년 K리그 U-18 챔피언십의 경기출전 30% 이상 선수 (점수 300)
+   - 등급 6: 2023년도 전국대회 개인전 32강 입상자
+     2021~2022년도 전국대회 개인전 16강 입상자
+     2023년도 전국대회 단체전 16강 이내 입상자
+     2021~2022년도 광역시·도 대회 개인전 8강 이내 입상자 (점수 0)
+이러한 대회의 성적을 기반으로 점수를 부여받아 합격 여부가 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.5125806927680969</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로 주제를 제공하면 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+당일에는 이들 중에서 각각 1개씩을 추첨하여 연결된 주제를 결정합니다. 예를 들어 "잠자리와 콜라병"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.9573767185211182</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 기반으로, 학생부교과 전형에서 출결 점수는 다음과 같이 반영됩니다:
+1. **가군 수능(일반학생전형) - 전 모집단위 (레저스포츠학과, 태권도학과 제외)**:
+   - 출결 점수가 반영되지 않습니다.
+2. **나군 수능(일반학생전형) - 전 모집단위 (한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외)**:
+   - 출결 점수가 반영되지 않습니다.
+3. **다군 수능(일반학생전형) - 전 모집단위**:
+   - 출결 점수가 반영되지 않습니다.
+4. **나군 학생부교과(농어촌학생전형)**:
+   - 출결 점수가 반영되지 않습니다.
+5. **나군 학생부교과(평생학습자전형)**:
+   - 출결 점수가 반영되지 않습니다.
+6. **나군 학생부교과(성인학습자(정원내)전형)**:
+   - 출결 점수가 반영되지 않습니다.
+7. **나군 학생부교과(성인학습자(정원외)전형 - 정원외)**:
+   - 출결 점수가 반영되지 않습니다.
+8. **나군 학생부종합(재직자전형) - 정원외**:
+   - 출결 점수가 반영되지 않습니다.
+9. **나군 학생부종합(조기취업형계약학과전형) - 정원외**:
+   - 출결 점수가 반영되지 않습니다.
+따라서, 2024학년도 동안 학생부교과 전형에서 출결 점수는 대부분의 경우 반영되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.6956019997596741</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과는 가군 일반학생전형으로 9명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.6329419612884521</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+관련 정보:
+- 단과대학: 인문사회과학대학
+- 계열: 인문사회
+- 모집단위: 영어영문학과 - 교직
+- 모집인원: 28명
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.8444595336914062</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.6287968158721924</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.8472718000411987</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 
+주요 내용 요약:
+- 지원 자격: 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수한 자
+- 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자 (부모가 사망하거나 이혼한 경우 제외)
+- 지원 자격 증빙서류: 가족관계증명서, 주민등록초본, 학교생활기록부 등
+따라서 예술고 학생이 농어촌 지역에 소재하는 중·고등학교에서 재학하며 부모와 함께 농어촌 지역에 거주했다면 해당 전형으로 지원 가능합니다. 다만, 구체적인 자격 요건과 제출 서류는 대학 입시 홈페이지를 확인하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.9152094721794128</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4등급의 레저스포츠학과 여자 제자리 멀리뛰기 기록은 276~280cm이며, 배점은 325점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.8576786518096924</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>12%입니다. 경기지도학과의 전형요소 반영비율에서 출결은 12%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.8958675861358643</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2명을 모집합니다. 
+가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원에서 다음과 같이 나와 있습니다:
+- 인문사회과학대학, 계열은 자연과학이며,
+- 모집단위은 물리치료학과이며,
+- 모집인원은 4명이지만, 이 중 일부는 다른 전형으로 분배되어 있을 가능성이 있으므로 정확한 가군에서의 모집인원은 2명입니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.6325910687446594</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.8344929218292236</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 명시는 없습니다. 
+전형요소 반영비율 부분에서는 수능 최저기준이 없음을 나타내고 있지만, 특정 단과대학 및 전공별로 정해진 수능 최저기준이 있는 경우도 있을 수 있습니다.
+따라서 동의대학교 응용화학과의 2024학년도 수능 최저기준을 확인하려면 다음과 같은 방법을 추천드립니다:
+1. 동의대학교 공식 홈페이지를 방문하여 2024학년도 입시 안내 페이지를 확인합니다.
+2. 입시 안내나 전형요건 섹션에서 각 단과대학 및 전공별 수능 최저기준을 찾아보세요.
+3. 필요하다면 대학 입학처에 직접 문의하여 자세한 정보를 얻으세요.
+이러한 방법들을 통해 정확한 수능 최저기준을 확인하실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.5462668538093567</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과 정보는 제공된 데이터에서 확인할 수 없습니다. 하지만, 제공된 정보 중에서 미래융합대학의 라이프융합학부와 부동산자산경영학부가 새로운 모집단위로 추가되었음을 알 수 있습니다. 
+라이프융합학부는 신설되었으며, 다음과 같은 전공들이 포함되어 있습니다:
+- 신설 (스타트업창업투자학)
+- 신설 (뷰티비즈니스학) 
+- 신설 (라이프생활문화학)
+부동산자산경영학부도 신설되었으며, 다음과 같은 전공들이 포함되어 있습니다:
+- 부동산투자학
+- 부동산개발경영학
+따라서, 2024학년도 동의대학교에서 신설된 학과는 라이프융합학부와 부동산자산경영학부로 추정됩니다. 하지만 이 정보가 완벽한 확실성을 가지지는 않으므로, 공식 입학전형 안내서나 대학교 홈페이지를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.9596053957939148</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 학생부 교과: 0%
+- 출결: 0%
+- 서류: 70%
+- 면접: 30%
+- 실기: 0%
+- 수능: 0%
+이와 같이 나군의 학생부종합(성인학습자전형)에서는 서류 평가 비중이 높게 설정되어 있으며, 다른 요소들은 반영되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9272310733795166</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>东义大学在一些特定的学部和学科中应用了高考加分政策。根据提供的信息，以下是一些可能应用高考加分政策的学部和学科：
+1. 公工学部 (Gonggongxuebu) - 工程学部 (Gongchengxuebu)
+   - 机器人自动化工程学 (Robot Automation Engineering)
+   - 汽车工程学 (Automobile Engineering)
+2. ICT融合工学部 (ICT Ronghe Gongxuebu)
+   - 计算机科学与技术 (Computer Science and Technology)
+   - 软件工程 (Software Engineering)
+   - 人工智能学 (Artificial Intelligence)
+   - 电气工程 (Electrical Engineering)
+   - 电子工程 (Electronic Engineering)
+3. 医疗保健生活学部 (Yiliao Baojian Shenghuo Xuebu) 
+   - 物理治疗学 (Physical Therapy)
+4. 环境工学部 (Huanjing Gongxuebu)
+   - 环境工程 (Environmental Engineering)
+   - 化学工程与工艺 (Chemical Engineering and Technology)
+5. 生命科学与生物技术学部 (Shengming Kexue Yu Shengwujishu Xuebu) 
+   - 生物医学工程 (Biomedical Engineering)
+6. 食品工学部 (Shifang Gongxuebu)
+   - 食品工程 (Food Engineering)
+7. 信息与通信工程学部 (Xinxi Yu Tongxin Gongcheng Xuebu)
+   - 信息安全 (Information Security)
+8. 材料科学与工程学部 (Cailiao Kexue Yu Gongcheng Xuebu) 
+   - 新材料 (New Materials)
+9. 建筑学部 (Jianzhu Xuebu)
+   - 建筑学 (Architecture)
+10. 机械工程学部 (Jiexie Gongcheng Xuebu)
+    - 机械工程 (Mechanical Engineering)
+请注意，这里列出的只是可能应用加分政策的部分学科，并不代表所有学科都适用。具体哪些学科可以加分以及加分标准可能会有所不同，请参考东义大学官方发布的最新招生简章或咨询学校相关部门以获取准确信息。</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.4228919446468353</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다:
+- **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)
+- **반영 비율**: 각 영역별로 25%
+따라서, 수능 성적은 다음과 같이 계산됩니다:
+- 국어 표준점수 (25%)
+- 수학 표준점수 (25%)
+- 영어 등급 점수 (25%)
+- 탐구 표준점수 (25%)
+이러한 점수들을 합산하여 최종 성적을 산출합니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.898601770401001</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정이 정해져 있습니다:
+- 레저스포츠학과, 태권도학과의 실기고사는 **2024. 01. 16.(화)**입니다.
+따라서, 레저스포츠학과와 태권도학과를 지원하는 학생들은 이 날짜에 실기시험을 치러야 합니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.8728985786437988</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 패션디자인학과는 가산점 대상에서 제외됩니다. 
+이 점을 요약하면:
+- 모든 모집단위가 일반적으로 수능 성적을 반영받습니다.
+- 예술디자인체육대학의 패션디자인학과는 이 전형에서 수능 가산점을 받지 못합니다.
+이는 다른 모집단위들에 비해 패션디자인학과만 특별한 제외 사항이 있다는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.9716017246246338</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교의 다군 전형에 대한 정보는 제공된 자료에는 명시되어 있지 않습니다. 하지만 일반적으로 대학별로 다군 전형에서는 수능 최저기준을 설정하여 해당 기준을 충족해야 하는 경우가 많습니다.
+수능 최저기준은 학생들의 수능 성적에 대한 기본적인 요구사항으로, 특정 단과대학 또는 모집단위에서 지원할 수 있도록 정해진 점수를 의미합니다. 이는 대학의 교육 목표와 채용 기준을 고려하여 설정되며, 각 대학마다 다르게 적용될 수 있습니다.
+따라서 동국대학교의 다군 전형에서도 수능 최저기준이 적용되었을 가능성이 높지만, 정확한 정보는 동국대학교 입학처 웹사이트나 공식 안내 자료를 통해 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.8892691135406494</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 라이프융합학부가 신설되어, 이전에는 학부로 분류되지 않았던 스마트업창업투자학, 뷰티비즈니스학, 라이프생활문화학 등 세 가지 전공이 추가되었습니다. 따라서, 라이프융합학부는 기존의 학과와 함께 신설된 세 가지 전공을 포함한 새로운 학부로 분류됩니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.81364905834198</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 원서 접수 마감일은 2023년 12월 5일입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.9684405922889709</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 140점 → 1등급 120점
+     - 학업역량: 1등급 280점 → 1등급 240점
+     - 전공적합성: 1등급 280점 → 1등급 240점
+   이 변경은 평가 기준과 점수 배점을 조정하여 더 공정하고 세밀한 평가를 목표로 하고 있습니다.
+이러한 변화는 전반적인 평가 체계를 개선하기 위한 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.8798609375953674</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 아닌 수능이 주된 평가 기준입니다. 따라서 실기 비중은 없습니다.
+가군 실기/실적(일반학생전형) 전형요소 반영비율에서 다음과 같이 명시되어 있습니다:
+- 모집단위는 레저스포츠학과, 태권도학과 제외의 전 모집단위
+- 수능 비중: 100%
+- 실기 비중: -
+따라서 가군 실기/실적 전형에서는 수능 성적이 주요 평가 기준이며, 실기는 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.9094785451889038</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공을 포함하고 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 미래 융합 분야에 초점을 맞추어 다양한 산업과 생활 문화와의 접목을 목표로 하고 있습니다. 세부 전공별 특성화된 교육 프로그램을 통해 학생들이 창업, 뷰티, 생활문화 등 다양한 분야에서 전문성을 갖출 수 있도록 지원합니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.9569401144981384</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 실시하는 학과들은 다음과 같습니다:
+1. 디자인조형학과:
+   - 모집단위: 시각디자인 / 산업디자인 / 공예디자인
+   - 실기종목: 기초디자인, 사고의 전환
+2. 체육학과:
+   - 모집단위: 체육학과
+   - 실기종목: 제자리 멀리뛰기, 메디신볼 던지기, Z-런
+따라서 동의대학교 2024학년도 가군에서 실기고사를 실시하는 학과는 디자인조형학과와 체육학과입니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.8656753301620483</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형으로 모집하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+4. 체육학과 - 교직
+5. 경기지도학과 - 신설
+이러한 학과들은 실기/실적 위주 전형으로 모집하며, 각 학과별로 모집 인원도 다르게 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.9511137008666992</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 세 가지 전공은 학생들이 다양한 삶의 영역에서 창업과 투자를 포함한 비즈니스 활동, 뷰티 및 미용 분야, 그리고 일상 생활 문화와 관련된 지식을 습득할 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.6693229079246521</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（特수목적고등학교）的学生，并且符合以下条件之一，则可以申请东义大学的一般学生入学考试：
+1. 科学高中 (과학고)
+2. 国际高中 (국제고)
+3. 外语高中 (외국어고)
+4. 艺术高中 (예술고)
+5. 体育高中 (체육고)
+6. 技工高中 (마이스터고)
+7. 特殊教育高中 (특수목적고)
+8. 职业高中（职业教育）(특성화고의 특성(직업))
+9. 社会教育高中 (특성화고의 특성(대안))
+10. 天才学校 (영재학교)
+11. 其他承认的学历 (기타의 학력인정고)
+12. 广播通信高中 (방송통신고)
+13. 各种学校 (각종학교)
+14. 高等教育考试合格者 (검정고시)
+15. 海外高中毕业生 (외국고)
+所以，如果你是特殊教育高中（特普目）的学生，并且符合上述条件之一，则可以申请东义大学的一般学生入学考试。建议你查看具体的招生简章或直接访问东义大学的官方网站以获取最准确的信息。
+[参考链接：https://ipsi.deu.ac.kr/main.do]</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.4360019564628601</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원 내 모집 인원을 살펴보아야 합니다. 제공된 정보를 바탕으로, 다음과 같은 결론을 도출할 수 있습니다:
+1. 디자인조형학과 - (시각디자인, 산업디자인, 공예디자인)는 75명을 모집하고 있습니다.
+2. 경기지도학과 - 신설은 30명을 모집하고 있습니다.
+3. 레저스포츠학과는 45명을 모집하고 있습니다.
+4. 태권도학과는 35명을 모집하고 있습니다.
+이 중에서 가장 많은 인원을 모집하는 학과는 **디자인조형학과**로, 75명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.9318079948425293</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교의 학생부교과 농어촌학생전형에 지원이 가능합니다. 
+특히, "나군 학생부교과(농어촌학생전형) - 정원외 지원자격" 항목에서 다음과 같이 명시되어 있습니다:
+- 유형은 6년 과정일 경우, 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자입니다.
+- 유형은 12년 과정일 경우, 부모의 거주지와 상관없이 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자입니다.
+따라서 특수목적고등학교라도 해당 조건을 충족하면 지원이 가능합니다. 다만, 본인과 부모의 거주지를 확인하여 농어촌 지역에 거주하였는지 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.8599966168403625</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 450.71입니다.
+최종합격자의 경우 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 348.67이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 459.02입니다.
+따라서, 2024학년도 소프트웨어공학부 합격자의 평균 성적을 종합하면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 348.67
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 459.02</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.7520732879638672</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+추가적으로, 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.8443512916564941</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교의 합격자 발표 일정에 대한 정보는 제공되지 않았습니다. 일반적으로 대학별로 합격자 발표일은 입시 계획이나 공지사항을 통해 공식으로 안내됩니다. 정확한 날짜를 확인하려면 동의대학교의 공식 웹사이트나 입학처 홈페이지, 또는 전화로 문의하시는 것이 좋습니다. 또한, 코로나19 상황 등에 따라 일정이 변경될 수 있으므로 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.7121133804321289</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有具体说明面试考试的确切日期或安排。通常，大学会在招生简章、官方网站或者通过邮件通知考生具体的面试时间。建议您查看学校官方发布的最新通知或联系学校的招生办公室以获取准确的面试时间和地点信息。如果有面试准备的相关要求或注意事项，也一并留意相关信息以便做好充分准备。</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.3209223747253418</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과 최저학력기준 정보는 제공되지 않았습니다. 하지만 일반적으로 한의예과의 지원 자격은 다음과 같은 특징을 가질 수 있습니다:
+1. 수능 응시 요건:
+   - 수학(미적분 또는 기하) 과목 응시 필요
+   - 특정 수학 영역에 따라 다른 점수 요구
+2. 학력 요구:
+   - 고등학교 졸업 자격이 필요합니다.
+3. 특별한 요건:
+   - 일부 대학은 추가적인 인터뷰 또는 서류 심사 과정을 실시할 수 있습니다.
+   - 특정 대학에서는 영어 능력을 평가하기 위해 TOEIC 점수 등을 요구할 수도 있습니다.
+4. 경쟁률과 합격 기준:
+   - 각 대학마다 다르므로, 정확한 최저학력기준을 확인하려면 해당 대학의 공식 입시 정보를 참조해야 합니다.
+   - 일반적으로 경쟁률이 높아서 특정 점수 이상을 요구하는 경우가 많습니다.
+따라서 가장 정확하고 최신의 한의예과 최저학력기준은 각 대학의 공식 입시 홈페이지나 입학처에 직접 확인하시거나, 입시 상담을 받는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.5499911308288574</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 다음과 같은 전형별로 수능 최저학력 기준이 없습니다:
+1. 가군 수능(일반학생전형) - 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. 나군 수능(일반학생전형) - 한의예과(수학&lt;확률과통계&gt;)를 제외한 전 모집단위
+3. 다군 수능(일반학생전형)
+이들 전형 모두 수능 최저기준 없음으로 표시되어 있습니다.
+그러나 다른 학생부교과, 실기/실적 위주 등 다른 전형에서는 수능 최저학력 기준이 있을 수 있으므로, 전체적인 입학요건을 확인하시려면 대학의 공식 입학규정이나 홈페이지를 참조하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.6208512783050537</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+- **1차 충원 합격자 발표**: 2024. 02. 14.(수) 09:00
+- **1차 충원 합격자 등록**: 2024. 02. 14.(수) 09:00~16:00
+- **2차 충원 합격자 발표**: 2024. 02. 15.(목) 09:00
+- **2차 충원 합격자 등록**: 2024. 02. 15.(목) 09:00~16:00
+- **3차 이후 충원 합격자 발표**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+이 일정에 따라 각 차례별로 충원합격자를 발표하고 등록을 진행합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.952730655670166</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집 추가합격자는 2023년 12월 27일(목)에 발표됩니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.7483469247817993</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我需要更多关于哪个学校或项目的具体信息。不过，我可以根据一般情况提供一些指导：
+1. 首先确认是哪所学校或项目在考虑是否进行追加招生。
+2. 查看该学校的官方公告或招生简章，通常会明确说明是否有追加招生计划。
+3. 考虑到时间因素：
+   - 如果是在常规录取结束后不久询问，学校可能会有追加名额。
+   - 如果已经过了常规录取阶段较长时间，追加招生的可能性较小。
+4. 了解申请截止日期：即使有追加名额，也需要在规定时间内提交申请。
+5. 联系学校的招生办公室或相关部门获取最准确的信息。
+6. 查看往年的招生情况，了解是否有追加招生的传统。
+如果您能提供具体的学校名称和项目信息，我可以尝试为您查找更详细的情况。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.3078717589378357</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학교에서 성인 학습자를 위한 특별한 전형으로, 고등학교 졸업 자격을 갖춘 성인들이 입학할 수 있는 기회를 제공합니다. 주요 내용은 다음과 같습니다:
+1. 모집단위 및 모집인원:
+   - 미래융합대학 인문사회 계열 라이프융합학부: 11명
+   - 미래융합대학 인문사회 계열 부동산자산경영학부: 7명, 17명 (정원내외)
+   - 기타 다양한 학과 및 전공에서 모집
+2. 지원자격:
+   - 고등학교 졸업 자격을 갖춘 성인
+   - 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자 (성인학습자(정원내)전형)
+3. 제출서류:
+   - 고교 학교생활기록부 (온라인 제공 동의자는 제출 필요 없음)
+   - 검정고시 합격증서 및 성적증명서 (검정고시 출신자)
+   - 외국고교 졸업 증명서와 성적증명서 (외국고교 졸업자)
+4. 전형요소 반영비율:
+   - 서류: 70%
+   - 면접: 30%
+5. 동점자 처리기준:
+   - 면접고사 성적 상위자
+   - 서류평가 공동체역량 영역 성적 상위자
+   - 서류평가 전공적합성 영역 성적 상위자
+   - 교과 성적 상위자
+6. 평가영역 및 배점:
+   - 공동체역량: 1등급 140점, 2등급 129.5점 등
+   - 학업역량: 1등급 280점, 2등급 259점 등
+   - 전공적합성: 1등급 280점, 2등급 259점 등
+이러한 정보를 바탕으로 평생학습자전형에 지원하려는 성인들이 준비할 수 있는 내용을 확인하실 수 있습니다. 자세한 사항은 대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.8603668212890625</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 소속 직원 (예외 없음)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+     ※ 단, 4대 보험 가입 대상 사업체가 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정할 수 있음
+2. 재직기간:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+3. 지원 자격 증빙서류:
+   - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 외국고교 졸업(예정)자인 경우:
+     * 공증받은 외국고교 졸업(예정)증명서 1부
+     * 공증받은 외국고교 성적증명서 1부
+     * 학교생활기록부 대체 서류 (제출 여부 선택 가능)
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.6400290131568909</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>为了参加实考，您需要前往东大门校区。具体步骤如下：
+1. 确认考试日期和时间。
+2. 携带必要的证件（如学生证、身份证等）。
+3. 根据您的专业选择相应的考场：
+   - 对于设计造型学专业的考生：基础设计或思维转换科目，请前往东大门校区的指定考场。
+4. 遵守考场规则，准时参加考试。
+请注意检查具体的考场安排和注意事项，并提前做好准备。如果有任何疑问，建议直接联系学校招生办公室确认详细信息。</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.3541557788848877</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. 종목: Z-런, 제자리 멀리뛰기, 메디신볼 던지기 중에서 선택
+2. 준비물:
+   - 볼펜 
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. 실기주제: 주제A와 주제B 각 1개씩 선정하여 연결된 주제로 당일 추첨 (예시: 콜라병과 계절)
+4. 화지 크기: 켄트지2절
+5. 시간: 5시간
+6. 기타 조건:
+   - 제공된 사물과 이미지 이외의 형상은 표현하지 마세요
+   - 제공된 사물은 모두 1회 이상 표현하세요
+   - 제공된 사물의 색상 변경 금지
+이러한 내용을 참고하여 체육학과 실기고사 준비를 진행하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.5143174529075623</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 일반적으로 대학들은 수시 충원 합격자를 발표한 후, 합격자들에게 개별적으로 연락하여 등록 절차를 안내하는 경우가 많습니다. 하지만 모든 대학이 동일하게 전화로 연락하지는 않을 수 있습니다.
+입학처 홈페이지나 입학 안내 자료에서 정확한 정보를 확인하시기 바랍니다. 특히 다음과 같은 사항을 주의해야 합니다:
+1. 발표 일정: 2024년 2월 15일(목) 19시 이후로 충원 합격자를 발표합니다.
+2. 등록 절차:
+   - 홈페이지에서 개별 조회
+   - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+   - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+3. 전화 통보 여부: 일부 대학에서는 합격자들에게 개별적으로 전화를 통해 등록 절차 등을 안내할 수 있습니다.
+4. 확인 방법:
+   - 입학처 홈페이지 공지를 확인
+   - 입학 안내 자료를 참조
+따라서 정확한 정보는 해당 대학의 공식 입학 안내 사이트나 입학처와 직접 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.7696086168289185</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 구체적인 정보를 제공하기 위해서는 해당 대학교의 공식 입학처 웹사이트나 입학 안내 자료를 참조해야 합니다. 하지만, 일반적으로 수시모집 결과에는 다음과 같은 요소들이 포함될 수 있습니다:
+1. 모집인원: 경찰행정학과에서 모집한 인원 수
+2. 지원자 수: 해당 학과에 지원한 전체 지원자의 수
+3. 경쟁률: 모집인원 대비 지원자 수 비율
+4. 최종합격자 명단 및 등록금 납부 기간
+특정 연도의 정확한 결과는 다음과 같은 정보를 통해 확인할 수 있습니다:
+- 입학처 공지사항
+- 대학교 홈페이지의 입학 안내 섹션
+- 입학사정관 시스템 (UWayApply) 또는 기타 원서 접수 플랫폼
+위에서 언급된 데이터와 일치하는 2024년도의 정보를 바탕으로, 2023년도 경찰행정학과 수시모집 결과는 다음과 같은 예측이 가능합니다:
+- 모집인원: 7명
+- 지원자 수: 29명 (예상)
+- 경쟁률: 약 4.14대 1 (예상)
+실제 결과와 차이가 있을 수 있으므로, 공식 출처에서 확인하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.8000334501266479</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학을 위한 정시모집에서 일부 전형에서는 수능 응시를 필수로 요구하고 있습니다. 그러나 다음과 같은 전형들은 수능 응시가 아닌 다른 자격이나 조건을 통해 지원할 수 있습니다:
+1. 학생부종합(평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형): 이들 전형은 주로 평생교육 또는 성인 교육 경험이 있는 자를 대상으로 하며, 수능 점수보다는 학생부와 면접을 통해 평가됩니다.
+2. 농어촌학생전형: 중고등학교 재학기간 동안 농어촌 지역에 거주한 경험이 있는 자를 대상으로 합니다. 이 경우 수능 점수보다는 학생부와 출결 등록 기록을 통해 평가됩니다.
+3. 실기/실적 위주의 전형(경기지도학과): 특정 스포츠 종목 경기를 수행한 경험이 있는 자를 대상으로 하며, 실제 실력을 중심으로 평가합니다.
+따라서 수능 응시를 하지 않더라도, 해당 전형의 지원 자격을 충족시키는 경우에 따라 정시모집에서 지원할 수 있습니다. 그러나 일반적으로 대부분의 전형에서는 수능 점수가 학생들의 학업 능력을 평가하는 중요한 요소로 활용되기 때문에, 가능하다면 수능 응시를 권장합니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.5964177250862122</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>一般来说，高中毕业十年后申请大学的情况比较少见。大多数大学的招生政策针对的是近一两年内刚从高中毕业的学生。不过，具体情况可能因学校和专业而异。
+根据您提供的信息，这里有一些可能适用的途径：
+1. **成人学士学位（平生学習者）**：
+   - 这种类型的入学通常面向已经工作了一段时间的人。
+   - 申请条件包括一定的工作经验、高中学历或同等学历等。
+   - 具体要求和流程需要查看相关大学的具体招生信息。
+2. **特殊专业或项目**：
+   - 某些学校可能会有针对特定群体（如在职人员）的特殊入学途径，例如“就业合同学士学位”等。
+   - 这类项目的申请条件通常会包括一定的工作经验、高中学历或同等学历等。
+建议您访问以下网站获取更详细的信息：[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)
+如果您不确定具体要求，可以联系目标大学的招生办公室进行咨询。他们能够提供最准确和最新的信息。</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.3684610724449158</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 정시모집의 주요 단계를 포함하며, 각 단계별로 필요한 서류 제출 및 납부 시한 등을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.9469233751296997</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: 동일
+   - 충원 합격자 1차 발표 및 등록: 
+     - 날짜: 2024. 02. 14.(수) 09:00
+       - 비고: 동일
+   - 충원 합격자 1차 등록:
+     - 날짜: 2024. 02. 14.(수) 09:00 ~ 16:00
+       - 비고: 동일
+   - 충원 합격자 2차 발표 및 등록:
+     - 날짜: 2024. 02. 15.(목) 09:00
+       - 비고: 동일
+   - 충원 합격자 2차 등록:
+     - 날짜: 2024. 02. 15.(목) 09:00 ~ 16:00
+       - 비고: 동일
+   - 충원 합격자 3차 이후 발표 및 등록 (개별 전화 통보):
+     - 날짜: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+       - 비고: 동일
+이 일정은 일반적으로 정시모집의 주요 단계를 포함하고 있으며, 각 단계별로 중요한 정보와 마감일을 명시하였습니다. 자세한 내용은 입학안내 홈페이지에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.9559651017189026</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **나군 실기/실적(경기실적우수자전형)**:
+   - 이 전형에서는 수능 미응시자도 지원 가능합니다.
+2. **나군 학생부종합(조기취업형계약학과전형) - 정원외**:
+   - 이 전형에서도 수능 미응시자도 지원이 가능합니다.
+위와 같이, 경기실적우수자전형과 조기취업형계약학과전형에서 수능 미응시자도 지원이 가능한 전형들이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.6157029271125793</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년도 모집 정보를 바탕으로 전자공학과의 충원 합격 정보는 제공되지 않았습니다. 따라서 전년도(2023년도)에 대한 전자공학과의 충원 합격 차수에 대해서는 구체적인 데이터가 없습니다.
+만약 2024년도 모집에서의 정보를 참고해야 한다면, 전자공학과의 경우 모집인원은 60명이고 지원 인원이 105명으로 경쟁률이 높아 보입니다. 하지만 이는 전년도 데이터가 아니므로 정확한 답변을 드리기 어렵습니다.
+전년도에 대한 정보를 얻으시려면, 해당 대학의 입학처 웹사이트나 관련 공지사항을 확인하시거나 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.5946430563926697</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 저는 정확한 동의대학교 입학처 전화번호를 확인하지 못했습니다. 대학교 웹사이트나 공식 소셜 미디어 계정을 통해 최신 번호를 확인하시거나, 가능하다면 해당 정보가 포함된 공식 문서를 참조해보시는 것이 좋습니다. 필요하시다면 동의대학교의 공식 웹사이트를 방문하여 연락처 섹션을 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.5063694715499878</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우 일반적으로 다음과 같은 절차로 처리됩니다:
+1. **재통보**: 학교 측에서 다시 전화를 걸어 확인합니다.
+2. **메시지 남기기**: 전화가 되지 않으면 학생에게 메시지를 남겨 해당 내용을 알립니다.
+3. **웹사이트 확인**: 합격자 명단이 올라온 후, 학생 스스로 입학 안내 웹사이트를 통해 확인합니다.
+4. **입학관리팀 문의**: 학생이 직접 입학관리팀에 문의하여 상황을 확인할 수 있습니다.
+5. **추가 통보 방법**: 필요시 추가적인 통보 방법(예: 문자메시지, 이메일 등)을 사용합니다.
+具体的来说，如果电话联系不上候选人，学校通常会采取以下步骤处理：
+1. **重新拨打**：学校会再次尝试打电话。
+2. **留言通知**：如果仍然无法接通，会在系统中留消息给考生。
+3. **网站查询**：合作者名单公布后，考生可以自行登录入学信息网站查看结果。
+4. **联系招生办公室**：考生可以直接联系招生办公室询问情况。
+5. **其他联系方式**：必要时会使用其他方式（如短信、电子邮件等）进行通知。</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.699582040309906</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정 모두 동일하게 다음과 같은 서류를 제출해야 합니다:
+1. 고교 학교생활기록부 1부 (온라인 제공 동의자가 있는 경우 제출 필요 없음)
+2. 농어촌 거주 증빙서류:
+   - 농어촌 지역에 소재한 중·고등학교에서 전 교육과정을 이수한 증명
+   - 본인 및 부모(부모가 사망하거나 이혼한 경우에는 제외)의 농어촌 거주 증빙 (거주지와 학교가 동일하지 않아도 됨)
+3. 기타 필요한 서류:
+   - 고등학교 졸업(예정)증명서
+   - 주민등록簿 (户籍证明)
+   - 기타 요구사항에 따라 추가로 요청될 수 있는 서류
+12년 과정의 경우, 농어촌 거주 증빙은 지원자 본인만이 농어촌 지역에서 초·중·고등학교 전 교육과정을 이수하고 거주한 자라는 점에 주목해야 합니다.
+6년 과정과 12년 과정 모두 농어촌 지역의 학교에서 전 교육과정을 이수하고, 해당 지역에 거주한 증빙이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.9042925238609314</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원을 위해서는 다음과 같은 서류를 제출해야 합니다:
+1. 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자가 있는 경우 제출하지 않아도 됩니다.)
+2. 경기실적증명서 1부 (대한체육회 인터넷경기실적발급시스템에서 발급)
+이 외에 일반적으로 다음과 같은 기본 서류가 필요할 수 있습니다:
+- 신분 증명서 (주민등록등본 등)
+- 학력 증명서
+- 기타 요구되는 추가 서류 (학교나 대학이 요청하는 경우)
+하지만 주요하게는 위의 두 가지 서류가 필수적입니다. 특히 경기실적증명서는 경기실적우수자전형에 지원하기 위한 핵심 서류로, 해당 종목과 등급에 따른 점수를 받을 수 있도록 발급 받아야 합니다.
+주의: 실제 제출해야 하는 모든 서류는 동의대학교 입학처 웹사이트나 관련 안내서를 확인하는 것이 가장 정확합니다. 각 대학은 약간 다른 요구 사항을 가지고 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.9814251661300659</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 해당 대학교에서는 정시모집의 경우 저소득 기회균등 전형을 실시하지 않는 것으로 보입니다. 주요 변경사항 중에서 관련 내용을 찾지 못했으며, 일반적으로 저소득 기회균등 전형은 특별전형에 포함되므로 정시모집에서는 해당 전형이 적용되지 않을 가능성이 높습니다. 하지만 최종 확정된 정보는 대학 입학처 웹사이트나 공식 안내서를 통해 확인하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.5550780296325684</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>一般来说，如果两门科目考试的成绩是2.5等，则通常会取整为3等。这是因为大多数大学在处理平均成绩时采用的是四舍五入的方式。
+但是具体政策可能会因学校而异，有些学校可能确实会进行“向下取整”（即2.5等变为2等）。因此，最准确的答案还是需要直接咨询该大学的招生办公室或查看最新的招生简章和相关规定。如果有任何疑问，建议通过官方渠道确认具体的处理方式。
+通常情况下：
+- 2.0 - 2.4 等级取整为2
+- 2.5 - 2.9 等级取整为3
+所以如果您的情况是两门科目成绩分别为2.5等，那么平均后一般会视为3等。但为了确保准确无误，请务必确认学校的具体规定。</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.494304358959198</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집의 충원 합격자는 총 3차로 발표됩니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 합격자 발표 및 등록금 납부
+2. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 09:00 ~ 16:00
+   - 내용: 합격자 발표 및 등록금 납부
+3. **3차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+   - 내용: 합격자 발표 및 등록금 납부
+각 차례별로 합격자들이 홈페이지에서 개별적으로 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행으로, 등록금 고지서에 기재된 정보를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.9064505100250244</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **目标专业和大学的录取标准**：您需要知道eBiz學科在该大学2024年招生的具体要求。这包括平均分、最低分等。
+2. **您的具体成绩情况**：您提到的4.6是指数学或英语的成绩吗？如果是其他科目，也需要了解这些科目的权重和影响。
+3. **竞争程度**：不同专业的录取难度可能有所不同。有些专业可能会有较高的竞争率，而另一些则相对宽松。
+根据提供的信息，我们可以做一些假设性的分析：
+- eBiz學科在2024年的招生中，如果您的总成绩为4.6（假设是数学或英语），这通常会是一个比较低的分数。
+- 从您提供的数据来看，eBiz學科的平均分和标准差分别为317.87和7.35。这意味着大多数被录取的学生的成绩都高于这个水平。
+因此，如果您的总成绩为4.6（假设是数学或英语），并且没有其他高分科目来弥补这一不足，那么通过正規的正取途径可能不太容易获得录取。但是，这并不完全排除所有可能性：
+1. **特殊政策**：有些大学可能会有特殊的招生政策或者名额分配。
+2. **补录机会**：如果初次录取后还有剩余名额，有可能会进行补录。
+建议您：
+- 详细了解eBiz學科的具体录取标准和要求。
+- 考虑是否可以通过其他途径（如提前批、特殊招生等）申请。
+- 咨询学校招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.4484809637069702</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능(일반학생전형) 최초합격자들의 통계를 살펴보면, 다음과 같은 정보가 있습니다:
+- 모집 인원: 9명
+- 지원 인원: 95명
+- 경쟁률: 10.56
+- 충원 합격 (후보순위): 33명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 326.89이며, 표준 편차는 6.92입니다.
+영어 등급의 평균은 2.88이며, 표준 편차는 0.56입니다.
+수능 4개 영역 등급의 평균은 3.88이며, 표준 편차는 0.14입니다.
+수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 450.78이며, 표준 편차는 5.90입니다.
+정시 등급이 5.3인 경우, 수능 4개 영역 등급의 평균을 보면 3.88보다 높습니다. 이는 상대적으로 좋은 성적을 의미합니다. 그러나 e비즈니스학과의 경쟁률은 매우 높으며, 지원 인원이 많아서 최초 합격 가능성은 낮을 수 있습니다.
+평균적인 점수와 등급을 고려할 때, 정시 등급 5.3은 상대적으로 좋은 성적입니다. 그러나 e비즈니스학과의 경쟁률이 매우 높기 때문에 최초 합격 가능성은 낮다고 볼 수 있습니다.
+따라서 정시 등급 5.3으로 e비즈니스학과에 최초 합격하기 위해서는 다음과 같은 조건을 충족해야 합니다:
+1. 국어, 수학, 탐구 과목의 표준 변환 점수가 평균 이상이어야 합니다.
+2. 영어 등급도 상대적으로 높아야 합니다.
+따라서 최초 합격 가능성은 낮지만, 충분히 도전해볼 만한 가치가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.7841477990150452</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **你的成绩**：你提供的信息中没有具体的成绩数据。通常，学校会根据学生的综合成绩（包括高考成绩、学生综合素质评价等）来决定是否预录取。
+2. **竞争情况**：不同年份和专业的竞争程度可能会有所不同。你需要了解该专业在你所在年级的平均分和其他申请者的分数分布情况。
+3. **其他因素**：除了学术成绩，学校还会考虑学生的综合素质评价（如学生社团活动、社会实践经历等）以及面试表现等因素。
+4. **录取标准**：根据提供的信息，该专业的录取标准包括：
+   - 国语 + 数学 + 研究(2个) (含加分) 标准转换分数总和的平均值为 396.29
+   - 英语等级的平均分为 1.00
+   - 数学四科等级的平均分为 1.20
+   - 数学四科（含加分）标准转换分数总和的平均值为 535.29
+假设你提供的成绩大致符合这些平均水平，那么你的成绩可能处于中等偏上的水平。但是，具体是否能预录取还需要结合其他申请者的具体情况来判断。
+建议：
+1. **详细了解**：查看该专业的详细招生简章或咨询学校招生办公室。
+2. **参考往年数据**：了解近几年的录取分数线和平均分情况。
+3. **准备充分**：如果可能的话，参加模拟面试和其他相关活动以提高综合素质评价部分的表现。
+综上所述，仅凭你提供的信息无法确定是否能预录取。建议进一步收集相关信息并进行综合评估。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.439911276102066</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 수능 등급으로 동의대학교 간호학과에 지원하는 것은 상당히 어려울 것으로 예상됩니다.
+다음은 이유와 참고사항입니다:
+1. 간호학과는 매우 인기 있는 전공 중 하나로, 경쟁률이 높습니다.
+2. 동의대학교 간호학과의 최소 합격 기준 등급은 대체적으로 3.5 이상입니다.
+3. 지원자의 수능 성적이 약간 낮아 보이지만, 이는 단순히 수능 점수만을 고려한 것이므로 전반적인 경쟁력을 판단하기에는 부족합니다.
+4. 간호학과는 실기 시험도 필수로 치르게 되어 있어, 수능 성적 외에도 실기 능력이 중요합니다.
+5. 농어촌학생이나 평생 학습자 등의 특별전형을 통해 합격 가능성은 있으나, 일반 전형으로는 어려울 것으로 보입니다.
+6. 다른 대학의 간호학과를 고려해보시거나, 실기 시험 준비에 집중하는 것이 좋을 수 있습니다.
+7. 동의대학교 외에도 경쟁률이 낮은 다른 대학이나 학교를 찾아보는 것도 방법일 수 있습니다.
+결론적으로 3.44 등급으로 간호학과에 정시로 합격하기는 어렵다고 판단됩니다. 그러나 다양한 방향성을 고려하고, 실기 준비와 함께 다른 전략을 세우는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.7417040467262268</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시모집에 대한 정보를 바탕으로 답변 드리겠습니다.
+1. **정시 모집단위 및 지원 자격**: 
+   - 단과대학: 의료보건생활대학
+   - 모집단위: 간호학과
+2. **최종 합격 가능성**:
+   - 2024학년도 동의대학교 간호학과는 정시모집에서 수능 성적을 기준으로 학생들을 선발합니다.
+   - 2023년도 간호학과의 최저학력기준은 국어 1.8, 수학 1.9, 영어 2.5였습니다 (단, 이는 정원내 모집단위 기준입니다).
+   - 2024년도에도 비슷한 수준의 합격 기준이 유지될 가능성이 높습니다.
+3. **성적 분석**:
+   - 국어: 1.8 이상 필요
+   - 수학: 1.9 이상 필요
+   - 영어: 2.52 (기준을 살펴보면 약간 초과)
+4. **추가 요인**:
+   - 학생부 종합 평가 결과, 면접 성적 등도 고려될 수 있습니다.
+   - 동의대학교는 전형에서 학업역량, 공동체역량, 전공적합성 등을 중점적으로 평가합니다.
+5. **결론**:
+   - 국어와 수학은 기준을 충족하지 못했지만, 영어 성적이 약간 초과되어 이점을 활용할 수 있습니다.
+   - 학생부 종합 평가 결과와 면접 성적 등이 좋은 경우 최종 합격 가능성은 높아질 수 있습니다.
+따라서, 2.52의 영어 성적을 바탕으로 학생부 종합 평가와 면접 성적이 우수하다면 최종 합격 가능성이 있을 것으로 보입니다. 하지만 확실한 것은 아니므로, 추가적인 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.7608232498168945</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수이지만, 간호학과에 지원할 때 고려해야 할 요소는 다양합니다. 간호학과의 경우 일반적으로 다음과 같은 요인들이 중요하게 작용합니다:
+1. **학업 성적**: 대부분의 대학에서 학업 성적이 중요한 평가 기준입니다. 3.7은 좋은 점수이지만, 간호학과는 종종 더 높은 GPA를 요구하기도 합니다.
+2. **면접 성적**: 많은 대학에서는 면접을 실시하여 지원자의 의사소통 능력, 동기부여, 직업 적합성 등을 평가합니다.
+3. **추천서**: 교사나 전문가의 추천서는 간호학과에서 중요하게 작용할 수 있습니다.
+4. **진로 계획 및 동기**: 지원자의 진로 계획과 간호사로서의 열정이 잘 설명되어 있어야 합니다.
+5. **추가 자격증이나 활동**: 관련 자격증, 봉사활동, 연구 경험 등은 추가적인 장점으로 작용할 수 있습니다.
+6. **서류 평가 점수**: 학생부 종합 평가에서 공동체역량, 학업역량, 전공적합성 등의 영역에서 좋은 성적이 필요합니다.
+7. **면접 성적**: 면접에서도 좋은 성적을 받는 것이 중요합니다. 지원자의 의사소통 능력과 간호사로서의 적합성을 평가받습니다.
+따라서, 3.7의 GPA만으로 합격할 수 있는 것은 아니지만, 위와 같은 요인들을 잘 준비하고 제출한다면 좋은 결과를 얻을 가능성이 있습니다. 각 대학별로 요구 사항이 다르므로, 해당 대학의 정시 모집요강과 전형 방식을 꼼꼼히 확인하시고, 지원 자격을 충족하는지 점검해보세요.
+추가적으로, 학교 홈페이지나 입학처에 문의하거나, 간호학과 관련된 컨설팅 서비스를 이용하면 더 구체적인 조언을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.6335827112197876</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집에서 지원자의 성적 평균은 353.48입니다. 지원자의 성적이 2.58이므로, 이는 평균보다 상당히 낮습니다.
+다만, 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. 경쟁률: 현재 경쟁률은 6.59로 높아서, 성적이 조금 낮더라도 특별한 이유가 있다면 합격 가능성이 있을 수 있습니다.
+2. 지원자들의 전체 성적 분포: 일부 지원자의 성적이 매우 낮을 수도 있으므로, 평균보다 약간 낮은 점수라도 합격할 가능성은 있습니다.
+3. 기타 평가 요소: 서류심사나 면접 등에서 우수한 평가를 받으면 합격 가능성이 높아질 수 있습니다.
+4. 특별 지원자: 농어촌학생, 경기 실적 우수자 등 특별 지원자가 있다면 이에 해당하는 경우가 있다면 유리할 수 있습니다.
+결론적으로, 성적이 2.58이므로 낮은 점수로 합격하기는 어렵지만, 특별한 이유나 기타 평가 요소를 잘 활용한다면 합격 가능성은 열려있습니다. 그러나 확실한 보장은 아니며, 최선을 다해 지원하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.7351070642471313</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏工学系录取,我需要考虑以下几个因素:
+1. 您的高考成绩和科目选择。根据提供的信息,不同专业有不同的科目权重比例。
+2. 您在申请时提交的其他材料,如学生学业记录、实践经历等。
+3. 您的具体排名情况,包括笔试和面试的成绩。
+4. 该专业的招生名额是否还有剩余。
+建议您:
+1. 访问东国大学官网(https://ipsi.deu.ac.kr/main.do)查看最新的招生信息。
+2. 核对您的高考成绩是否符合游戏工学系的要求。
+3. 准备好所有需要提交的申请材料,包括学业记录等。
+4. 关注后续的面试安排和其他选拔环节。
+由于具体录取情况每年会有所不同,建议您直接访问学校官网获取最准确的信息。如果有疑问,也可以联系学校的招生办公室咨询。</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.4420681595802307</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급은 상당히 낮은 점수입니다. 게임공학과는 공학 계열로, 비교적 높은 수능 점수가 요구되는 전형이 많습니다.
+다만 정확한 합격 확률을 예측하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. 모집인원 및 지원자 수: 게임공학과의 모집 인원과 실제 지원자의 수를 확인해야 합니다.
+2. 경쟁률: 이전 연도의 경쟁률을 참조하면 도움이 됩니다.
+3. 학생부 등其它信息：根据提供的信息，我们可以进行以下分析：
+1. 4.16的等级在韩国高考中属于较低水平。对于游戏工程学专业来说，通常需要较高的数学和科学成绩。
+2. 游戏工程学专业的录取竞争非常激烈，尤其是对于私立大学如东国大学。
+3. 根据提供的数据，即使在最低的科目组合（国语+数学+两门选修课）中，平均标准转换分数也达到了309.71。而4.16的等级对应的分数远低于这个平均水平。
+基于以上分析，对于拥有4.16等成绩的学生来说，在东国大学游戏工程学专业通过常规录取（一般学生类型）的可能性非常低。即使在特殊类型如农林地区学生类型中，也需要更高的标准转换分数。
+因此，建议该学生考虑以下几种可能性：
+- 申请其他竞争较小的专业或学校。
+- 考虑参加补习班提高成绩。
+- 了解并尝试申请一些录取门槛较低的学校或专业。
+- 如果有特长或特殊才能，可以关注特长生类型（如艺术、体育等）的招生。
+总之，4.16的成绩在当前情况下很难通过常规途径被东国大学游戏工程学专业录取。</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.6466714143753052</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 경영정보학과의 경우, 정시 모집군이 다군으로 변경되었으며, 수능 및 교외고사 성적 반영 비율은 다음과 같습니다:
+- 수능 반영 영역: 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25%
+- 가산점: 없음
+따라서, 수능 성적이 중요합니다. 
+당신의 수능 점수만으로는 판단하기 어렵습니다. 경영정보학과의 정시 모집인원 및 경쟁률을 확인하고, 다른 평가 요소(면접 등)도 고려해야 합니다.
+추천 드리는 사항:
+1. 최종 합격 가능성을 확인하기 위해 경영정보학과의 정시 모집인원과 경쟁률을 확인하세요.
+2. 수능 성적 외에 면접 준비를 철저히 하세요.
+3. 다른 전공의 정시 성적도 참고하여 비교해보세요.
+결론적으로, 3.75의 수능 점수만으로 최초등록자로 확정할 수는 없습니다. 경쟁률과 모집인원 등을 종합적으로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.6774673461914062</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要更多的信息。您提到的“4.2”是指学生的高考成绩吗？如果是这样的话，不同大学和专业的录取标准可能会有所不同。
+通常情况下：
+1. 经营信息学专业（经管类）的录取分数线会根据当年的具体情况而变化。
+2. 一般来说，4.2的成绩在大多数省份应该可以满足该专业的最低录取线。但是具体能否被经营信息学专业录取还需要考虑其他因素，如排名、志愿填报等。
+建议您：
+1. 查看目标大学和专业的具体招生简章或历年分数线。
+2. 咨询学校的招生办公室以获取最准确的信息。
+3. 考虑是否还有其他可以申请的专业或者学校。
+请提供更多的详细信息以便我能更准确地回答您的问题。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.4840801954269409</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 수능 최종등록자에서 일반학생전형 모집단위의 지원 인원이 13명이고, 경쟁률은 약 5.85입니다. 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 407.69이며, 이는 지원자의 성적 5.33보다 높습니다.
+따라서, 현재의 성적이 경쟁률과 평균 점수를 고려할 때, 합격 가능성은 낮을 것으로 예상됩니다. 하지만 최종 합격 여부는 여러 요인에 따라 달라질 수 있으므로, 다음과 같은 사항들을 확인해 보시기 바랍니다:
+1. **개별 지원자의 성적 분포**: 현재의 평균 점수가 407.69이지만, 일부 지원자들의 점수가 낮을 수도 있습니다.
+2. **가산점**: 가산점을 받은 경우, 실제 수능 점수보다 높아질 수 있습니다.
+3. **면접 성적**: 면접 등 다른 평가 요소가 합격 결정에 영향을 미칠 수 있습니다.
+4. **모집 정원 및 지원자 수**: 모집 정원과 지원자의 수가 변동될 수 있으므로, 최종 결과는 변경될 가능성이 있습니다.
+5. **전형 요소 비율**: 경영정보학과의 경우, 수능 성적이 100% 반영되므로, 수능 점수가 중요합니다.
+결론적으로, 현재의 성적만으로는 합격 가능성은 낮지만, 모든 요인을 고려해야 하며, 최종 결과를 확인하기 위해서는 동의대학교 입학처 웹사이트나 공지사항을 참고하시거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.7679531574249268</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 바이오응용공학부의 경우, 정시 최초등록자의 성적이 다음과 같습니다:
+- 모집인원: 15명
+- 지원인원: 238명
+- 경쟁률: 15.87 (238/15)
+- 충원 합격자 수: 139명
+성적 관련 데이터는 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 284.86
+- 영어 등급의 평균: 4.53
+성적 3.33은 대략 4등급에 해당합니다.
+따라서, 성적이 약간 낮지만, 경쟁률이 매우 높아 3.33 정도의 성적만으로 최초 등록을 확신하기는 어렵습니다. 하지만 일부 지원자가 더 낮은 점수를 가지고 합격한 사례도 있을 수 있습니다.
+결론적으로:
+1. 가능하지만, 경쟁률이 매우 높아 확실성은 낮습니다.
+2. 성적이 약간 낮지만, 다른 요인(추천서, 자기소개서 등)으로 인해 합격 가능성은 열려있습니다.
+최종 결정을 내리기 위해서는 정확한 성적과 경쟁률 등을 고려해야 하며, 지원 전에 대학 입학처나 관련 부서와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.7844306230545044</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과의 모집요강을 확인해보겠습니다. 방사선학과는 주로 공학계열에 속하며, 일반학생전형에서는 수능 성적이 중요한 요소입니다.
+방사선학과의 전형요건 및 수능 반영 비율은 다음과 같습니다:
+1. **수능 반영 영역**:
+   - 국어(화법과작문 또는 언어와매체) 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) 25%
+   - 영어 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+2. **가산점**:
+   - 수학(미적분 또는 기하) 응시자: 수학 취득 표준점수의 10% 가산점
+3. **모집인원 및 전형요소 반영 비율**:
+   - 정확한 모집인원은 공지에 따라 다를 수 있으나, 일반적으로 수능 성적이 주요 평가 기준입니다.
+4. **성적 산출 예시**:
+   - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학 응시자)
+현재 성적이 4.4정도라면, 수능에서 좋은 성적을 받은 경우 방사선학과에 지원할 수 있을 가능성이 있습니다. 그러나 정확한 예측은 실제 수능 점수가 결정적인 요인입니다.
+추천 사항:
+1. **수능 준비**: 현재 성적이 4.4정도라면, 수능 공부를 체계적으로 진행하여 최대한 높은 점수를 받는 것이 중요합니다.
+2. **모집요강 확인**: 정확한 모집요강과 전형요소 반영 비율을 확인해보세요.
+3. **추천서 및 자기소개서 작성**: 방사선학과에 지원하는 이유와 자신의 적합성을 잘 설명할 수 있는 추천서 및 자기소개서를 준비하세요.
+결론적으로, 현재 성적이 4.4정도라면 방사선학과에 지원 가능성이 있으나, 최종 결정은 실제 수능 점수와 모집요강을 바탕으로 하셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.6331080198287964</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년 경희대학교 방사선학과의 정시 최종 등록자들의 평균 수능 점수를 살펴보면, 지원 인원이 36명이고 경쟁률이 7.20인 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 338.76이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 463.36입니다.
+이러한 통계를 바탕으로 볼 때:
+1. **경쟁률**: 7.20이라는 경쟁률은 상대적으로 낮지 않지만, 정원 내외 모두 지원자가 많아서 경쟁이 치열할 수 있습니다.
+2. **평균 점수**: 평균 점수가 높기 때문에 2.66은 약간 낮은 편입니다.
+따라서:
+- **위험성**: 2.66이라는 점수는 평균보다 상당히 낮습니다. 이 점수로는 충분한 경쟁력을 갖추지 못할 가능성이 있습니다.
+- **전략적 접근**: 
+  - 다른 전형(예: 특기자, 농어촌학생전형 등)을 고려해 볼 수 있습니다.
+  - 추가 지원과 함께 대비를 하거나, 학교생활기록부와 면접 준비에 더 집중할 필요가 있을 수 있습니다.
+결론적으로, 2.66이라는 점수는 위험한 편이지만, 다른 전형을 통해 보완하거나, 추가 지원을 고려해 볼 만합니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.7866560816764832</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하셨다면, 합격 가능성은 낮다고 볼 수 있습니다. 이유는 다음과 같습니다:
+1. **경찰행정학전공의 일반적인 입학 기준**:
+   - 대부분의 대학에서 경찰행정학전공은 고등학교 졸업 후 4년제 대학에 진학하는 학생들을 대상으로 합니다.
+   - 이전과는 달리, 최근에는 많은 대학들이 경쟁률을 고려하여 더 높은 성적 기준을 요구하고 있습니다.
+2. **농어촌 전형의 특성**:
+   - 농어촌 전형은 주로 농어촌 지역 출신 학생들을 위한 특별한 지원 제도입니다.
+   - 이는 일반적인 경쟁률보다 낮은 성적 기준을 요구하기도 하지만, 여전히 특정한 최소 점수를 요구합니다.
+3. **성적 평균**:
+   - 3.66의 성적은 대부분의 대학에서 합격 기준에 미치지 못할 가능성이 높습니다.
+   - 일반적으로 경찰행정학전공의 합격자들의 평균 성적은 4.0 이상을 요구하는 경우가 많습니다.
+4. **추천서 및 서류평가**:
+   - 농어촌 전형에서는 학생부와 추천서 등 서류평가도 중요한 역할을 합니다.
+   - 이 부분에서 좋은 평가를 받는다면, 성적이 조금 낮더라도 합격 가능성은 높아질 수 있습니다.
+5. **추천**:
+   - 현재의 성적과 지원 전형을 고려하면, 다른 대학이나 전공으로 지원하는 것을 고려해 보시는 것이 좋습니다.
+   - 또는, 다른 농어촌 전형이나 특별전형을 찾아보시는 것도 방법입니다.
+마지막으로, 정확한 합격 가능성은 해당 대학의 최종 입학사정관들의 판단에 따라 결정되므로, 최신 정보와 지원 가능성을 확인하기 위해 대학 홈페이지나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.7796646356582642</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 대부분의 대학에서 100명 내외까지 선발하는 경우가 많으므로, 25번이라는 순위는 상당히 낮은 확률로 합격할 수 있습니다.
+하지만 몇 가지 요인을 고려해보면:
+1. 경쟁률: 전체 지원자 수와 모집 인원 수를 고려해야 합니다. 예를 들어, 모집 인원이 30명이고 지원자가 500명이라면 경쟁률은 약 16.7대 1입니다.
+2. 평균 성적: 해당 단과대학 및 모집단위의 평균 수능 점수와 합격者的：
+根据您提供的信息，25名的排名确实非常靠前。在大多数大学中，招生名额通常在100名以内，因此25名的位置意味着竞争非常激烈。以下是一些可能影响录取可能性的因素：
+1. **竞争人数**：需要知道总共有多少人申请了这个专业和学校。
+2. **招生名额**：具体有多少个名额被分配给该专业。
+3. **平均成绩**：了解该专业的平均录取分数，以及您的成绩是否接近或超过这些平均值。
+如果您的成绩非常接近或略高于该专业的平均录取分数线，并且您在其他方面（如面试、特长等）表现出色，那么仍然有一定的机会。但是总体来说，在如此靠前的位置，录取的可能性相对较低。
+建议您可以：
+- 保持积极的心态。
+- 准备充分的应对策略，包括准备可能的补录信息和计划。
+- 关注学校官网发布的最新通知和动态，以便及时了解任何变化或补充信息。
+希望这些信息对您有所帮助！</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.7595556378364563</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집에 대한 정보를 바탕으로 추론해보겠습니다:
+1. 전형별 모집인원 분석:
+   - 일반학생전형(가군): 35명 (정원내)
+   - 경기실적우수자전형(나군): 7명
+   - 조기취업형계약학과전형(다군): 10명
+2. 수능 최저 기준:
+   - 일반학생전형: 수능최저기준 없음
+   - 경기실적우수자전형: 수능최저기준 없음
+   - 조기취업형계약학과전형: 수능최저기준 없음
+3. 전형별 모집인원 및 지원 인원:
+   - 일반학생전형(가군): 42명 중 35명 선발 (경쟁률 약 1.2배)
+   - 경기실적우수자전형(나군): 8명 중 7명 선발 (경쟁률 약 1.14배)
+   - 조기취업형계약학과전형(다군): 10명 중 10명 선발
+4. 수능 성적 분석:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 251.82
+   - 수능 4개 영역 등급의 평균: 6.30
+이러한 정보를 종합하면, 법경찰행정학부에 안정적으로 들어가기 위해서는 다음과 같은 성적을 목표로 설정하는 것이 좋을 것 같습니다:
+1. 안정권:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 250-260 사이
+   - 수능 4개 영역 등급 평균: 6.0 이상
+2. 문 닫고 들어갈 수 있는 수준:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 270-280 사이
+   - 수능 4개 영역 등급 평균: 6.5 이상
+이러한 성적을 기반으로 준비한다면, 안정적인 입학 가능성을 높일 수 있을 것입니다. 하지만 최종 결정은 개인의 전형 선택과 지원 자격, 경쟁률 변화 등을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.720831573009491</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 경우, 최종등록자들의 지원 경쟁률과 합격者的，你的问题似乎没有完整地用中文表达出来。你是在询问如果某人的国语等级为5.33，是否有可能被东义大学保育家庭咨询学专业录取吗？如果是这样，请允许我根据提供的信息进行回答。
+首先，我们需要查看保育家庭咨询学专业的具体录取标准和往年数据。从给定的信息中，我们可以看到：
+1. 该专业的国语等级平均分为5.22。
+2. 国语等级的标准差为0.33。
+这意味着大多数被录取的学生的国语等级集中在5.22 ± 0.33之间，即大约在4.89到5.55之间。因此，一个国语等级为5.33的学生处于平均值附近，有一定的竞争力。
+然而，最终是否能够录取还取决于其他因素，如总成绩、面试表现等。如果该学生的综合能力较强，特别是其他科目和面试表现优秀，那么被录取的可能性会更大。
+建议：
+1. 确保所有提交的材料真实有效。
+2. 准备充分的面试内容，展示自己的优势和潜力。
+3. 关注学校发布的最新招生信息和要求。
+综上所述，国语等级为5.33的学生有较好的机会被录取，但仍需综合考虑其他因素。建议密切关注学校的官方通知，并做好全面准备。</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.6442630290985107</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>3차 충원 합격자 발표와 등록이 진행되고 있으며, 이미 예비 12번으로 선발되었습니다. 이 경우 일반적으로 합격 확률은 높습니다. 하지만 최종적인 합격 여부는 다음과 같은 요인들에 따라 결정됩니다:
+1. 다른 충원 차수에서 더 높은 순위의 지원자가 등록하지 않는다면.
+2. 입학사정관들이 서류평가와 면접 평가를 통해 해당 지원자의 적합성을 판단하는 결과.
+3. 학교 측에서 추가로 필요한 인원이 있는지 여부.
+4. 기타 객관적 요인들(예: 합격자들의 등록여부, 정원 완료 여부 등).
+현재로서는 예비 12번으로 선발된 상태라서 합격 가능성은 높지만, 최종 결정은 아직 남아있는 절차에 따라 변동될 수 있습니다. 
+추가적으로 확인해야 할 사항:
+- 입학사정관들이 평가하는 기간 동안 등록 여부를 지켜보세요.
+- 학교 홈페이지나 입학처와의 연락을 통해 최신 정보를 얻으세요.
+- 필요하다면 입학사정관과 직접 상담해 보는 것도 방법일 수 있습니다.
+결론적으로 현재 상태에서는 긍정적인 신호가 있지만, 아직 확실한 것은 아니므로 기다리면서 준비하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.7440617084503174</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대학입시에서 4.75는 매우 우수한 성적을 의미합니다. 그러나 유아교육학과에 지원할 때 다음과 같은 요소들을 고려해야 합니다:
+1. **모집단위와 전형**: 유아교육학과의 모집단위와 전형 방식이 중요합니다. 일부 학교에서는 수능 점수 외에도 학생부, 면접 등 다양한 평가 기준을 적용할 수 있습니다.
+2. **학생부 성적**: 4.75라는 수능 점수는 학생부에서도 높은 점수가 나올 가능성이 큽니다. 따라서 학생부에서의 성적이 우수하다면 이점이 있을 것입니다.
+3. **면접 및 서류평가**: 유아교육학과에서는 종종 면접이나 서류 평가를 통해 지원자의 적합성을 판단합니다. 창의성, 의사소통 능력, 교육적 관심 등이 중요하게 평가될 수 있습니다.
+4. **특기사항 및 활동**: 특기사항이나 관련 활동 경험이 있다면 이점으로 작용할 수 있습니다. 예를 들어, 유아교육 관련 프로젝트나 봉사활동 등을 경험했다면 이를 서류에 잘 기재하면 좋습니다.
+5. **전형별 가산점**: 일부 학교에서는 특정 전형에서 수능 점수 외에도 추가적인 가산점을 부여합니다. 이 점을 확인하고 활용할 수 있습니다.
+따라서, 4.75라는 높은 수능 점수는 유아교육학과에 지원하는 데 큰 도움이 될 것입니다. 그러나 최종 결정은 모집단위와 전형 방식, 그리고 학교별 평가 기준에 따라 달라질 수 있으므로, 해당 대학의 정확한 입시 정보를 확인하고 지원 전략을 세우는 것이 중요합니다.
+추가적으로, 만약 불안하다면 "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 얻어보시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.8580459952354431</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과 일반학생전형에 대한 정보를 바탕으로 분석해보겠습니다.
+1. **최종등록자 통계**:
+   - 지원 인원: 37명
+   - 경쟁률: 4.11 (37 / 9)
+   - 충원 합격 (후보순위): 17명
+2. **성적 분석**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 293.50
+   - 영어 등급의 평균: 4.12
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 407.50
+3. **당신의 성적**:
+   - 환산 등급: 4.16
+4. **성적 비교**:
+   - 당신의 환산 등급(4.16)은 평균 점수(4.12)보다 약간 높습니다.
+   - 표준 변환 점수 합 평균(407.50)과 비슷하거나 약간 낮습니다.
+5. **합격 가능성**:
+   - 경쟁률이 4.11이며, 충원 합격자 수가 17명으로 지원 인원의 절반 정도입니다.
+   - 당신의 성적이 평균보다 약간 높으므로, 충분히 합격 가능성은 있습니다.
+6. **추천**:
+   - 추합까지 고려하면 더 높은 등급을 가진 지원자들이 있을 수 있으므로, 확실한 합격을 보장하기는 어렵습니다.
+   - 그러나 당신의 성적이 평균 이상이고 경쟁률이 낮아서 충분히 합격 가능성은 있습니다.
+결론적으로, 당신의 성적과 동의대학교 보육가정상담학과의 통계를 고려하면, 추합까지 포함해도 합격 가능성이 있지만 확실한 것은 아닙니다. 최종 결정을 내리기 위해서는 추가 정보와 개인적인 상황을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.8202991485595703</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024년도에 대한 정보를 기반으로 답변드리겠습니다.
+1. **모집단위와 모집인원**: 소프트웨어융합학과는 ICT융합공과대학의 소프트웨어공학부로, 2024학년도에는 45명을 모집하였습니다.
+2. **전형요소 반영비율**:
+   - 수능: 100%
+   - 실기/실적: 없음
+3. **수능 반영 영역 및 가산점**: 
+   - 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+   - 가산점: 수학(미적분 또는 기하) 응시자에 한해 수학 취득 표준점수의 10% 가산점
+4. **최종등록자 성적 분석**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+   - 영어 등급의 평균: 3.77
+   - 수능 4개 영역 등급의 평균: 4.49
+5. **경쟁률 및 지원 인원**:
+   - 지원 인원: 146명 (경쟁률 4.87)
+이러한 정보를 바탕으로, 소프트웨어융합학과로 정시로 들어가기 위해서는 다음과 같은 점수를 얻어야 할 것으로 추정됩니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 317.87을 넘어야 합니다.
+- **영어 등급**: 평균 3.77 이상을 받는 것이 좋습니다.
+이러한 성적을 얻기 위해서는 다음과 같은 준비가 필요합니다:
+1. **국어와 수학**:
+   - 국어: 표준점수를 높이는 데 중점을 두세요.
+   - 수학: 특히 미적분 또는 기하 부분에 대한 이해와 문제 해결 능력을 키워야 합니다.
+2. **영어**:
+   - 등급을 높이기 위해 영어 실력 향상을 꾀하세요.
+3. **탐구 과목**:
+   - 탐구 과목 중에서 자신의 강점을 살려서 좋은 성적을 받도록 합니다.
+4. **가산점 활용**:
+   - 수학(미적분 또는 기하) 응시자에게는 가산점이 주어지므로 이 부분에 신경 써야 합니다.
+결론적으로, 소프트웨어융합학과로 정시로 들어가기 위해서는 평균 317.87 이상의 표준 변환 점수와 영어 등급 3.77 이상을 목표로 하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.6427060961723328</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히 소프트웨어융합과 같은 전공에서는 기술적 능력뿐만 아니라 학업역량과 전공적합성도 중요한 평가 요소로 작용합니다.
+1. **면접 점수**: 면접에서는 지원자의 문제해결능력, 학업역량, 전공적합성 등을 종합적으로 평가합니다. 이때 지원동기와 학업계획, 학업역량 관련 공통문항 발표 및 질의응답 등이 주요 평가 항목입니다.
+2. **서류 평가**: 서류평가에서는 공동체역량, 학업역량, 전공적합성 등을 평가합니다. 특히 소프트웨어융합과와 관련된 서류는 다음과 같습니다:
+   - **학업역량** : 고교에서의 컴퓨터 과목 성적이 중요하며, 특정 프로그래밍 언어나 기술에 대한 경험을 강조해야 합니다.
+   - **전공적합성** : 창의적 체험활동이나 동아리 활동, 진로활동 등과 관련된 내용이 중요합니다. 특히 소프트웨어 개발이나 IT 분야와 관련된 활동 경험이 있으면 좋습니다.
+3. **부정적 사례**: 서류 작성 시 주의해야 할 부정적 사례는 과장된 내용 기재, 학급/단체 단위의 내용 기재 등이 있습니다. 실제 경험과 일치하는 내용을 작성해야 합니다.
+4. **서류 준비**:
+   - **학교생활기록부**: 정확하고 객관적인 내용으로 작성되어야 합니다.
+   - **동아리 활동, 진로활동 등 관련 증빙 자료**: 프로젝트나 활동에 참여한 증거를 첨부하면 좋습니다.
+   - **수상 경력이나 인턴십 경험**: 이와 관련된 증명서나 보고서 등을 첨부할 수 있습니다.
+따라서, 면접 점수보다 서류 내용이 중요한 것은 아닙니다만, 두 가지 모두 중요하게 평가됩니다. 따라서 지원자는 면접 준비와 함께 정확하고 객관적인 서류를 작성하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.5952568650245667</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 경우, 수능(일반학생전형) 최초합격자의 성적 분석을 통해 다음과 같은 정보가 있습니다:
+- 모집단위: 소프트웨어공학부
+- 모집인원: 45명
+- 지원 인원: 12명
+- 경쟁률: 약 3.75 (12/45)
+- 충원 합격 (후보순위): 4명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 284.58
+- 영어 등급의 평균: 4.00
+- 수능 4개 영역 등급의 평균: 4.96
+이 정보를 바탕으로, 정시 성적이 4.08인 경우 다음과 같은 점을 고려해야 합니다:
+1. **경쟁률**: 현재 경쟁률은 약 3.75로 상대적으로 낮습니다.
+2. **평균성적**: 지원자들의 평균 성적이 284.58이며, 이는 비교적 낮은 수준입니다.
+3. **영어 등급**: 지원자의 영어 등급 평균이 4.00으로, 4.08과 매우 유사합니다.
+따라서, 정시 성적이 4.08인 경우 다음과 같은 확률을 가질 수 있습니다:
+- **합격 가능성**: 상당히 높습니다.
+- **경쟁자들보다 우위**: 평균성적(284.58)과 비교해보면, 4.08의 영어 등급은 지원자들 중에서 뛰어난 성적으로 보입니다.
+결론적으로, 정시 성적이 4.08인 경우 소프트웨어공학부 최초합격 가능성은 매우 높습니다. 그러나 최종 결정은 수능 점수 외에도 학생부 등 다른 평가 요소에 따라 달라질 수 있으므로, 정확한 확률을 알기 위해서는 전체 지원자들의 성적 분포와 학생부 평가 결과를 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.8188891410827637</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과의 정시 모집에서 최종 등록자의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 313.13이며, 영어 등급의 평균은 3.25입니다.
+이러한 데이터를 바탕으로 추정해보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 약 313.13입니다.
+- 영어 등급의 평균은 3.25입니다.
+이 중에서 영어 등급만 5등급으로 가정해보면, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 약 318.13 정도가 되어야 합니다.
+따라서, 단순히 영어 등급만 5등급으로 가정했을 때는 평균보다 약간 높아지지만, 전체적으로 보면 5등급으로 여기기는 어렵다고 볼 수 있습니다. 
+하지만 이는 단순 추정이며 실제 합격 기준은 여러 요소가综上所述，该大学软件工程学专业在2024年普通考生录取中的英语等级平均为3.25，而最高分为5级。因此，仅凭英语5级并不能保证被录取，还需要考虑其他因素如国语+数学+选修（含加分）标准转换总分等。所以答案是否能以5级为准取决于具体情况和其他科目成绩。
+综上所述，仅靠英语5级不能确定能否录取到该专业，但接近或略高于平均值是有帮助的。</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.6919975280761719</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 최종 등록자들의 성적 분포를 보면, 지원 인원이 81명이고 경쟁률은 1.45로 높지 않은 편입니다. 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 271.64이며, 이는 지원자의 성적 4.28보다 약간 낮습니다.
+하지만, 동등한 경쟁률과 비교했을 때, 지원자의 성적이 평균치를 살짝 웃돌고 있다는 점에서 좋은 기회가 될 수 있습니다. 또한, 전형 요소 중 학업역량이나 기타 개인적 특성 등이 중요한 역할을 하는 경우, 지원자가 이러한 부분에서 우수한 평가를 받았다면 더 큰 이점을 얻을 수 있을 것입니다.
+결론적으로, 성적이 4.28이라면 신소재공학과에 진학하는 것은 가능하지만, 경쟁률이 낮지 않은 만큼 높은 확률로 합격할 수 있는 보장은 없습니다. 지원자의 전반적인 평가와 입학사정관의 판단 등 다양한 요인을 고려해야 합니다.
+추천되는 조치:
+1. 추가적으로 강화된 학업 성적이나 활동 증빙 자료를 준비합니다.
+2. 동등한 경쟁자들과 비교하여 자신의 위치를 파악합니다.
+3. 입학사정관 면접 등 다른 평가 요소에서도 좋은 인상을 남깁니다.
+이런 조치들을 통해 합격 가능성을 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.8158528804779053</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 경희대학교의 수능 위주 전형(가군, 나군, 다군)에서는 학생부교과와 수능 성적만을 기준으로 평가하며, 자기소개서는 필수적으로 요구하지 않습니다. 따라서 수능 일반학생전형에 지원할 때는 자기소개서를 작성하지 않아도 됩니다.
+하지만 다음과 같은 사항들을 참고하시면 좋을 것 같습니다:
+1. **학업역량과 전공적합성**: 학생부교과 성적이 중요한 평가 기준이므로, 수능 위주로 평가되는 만큼 학업 역량과 전공 적합성을 잘 보여줄 수 있는 내용들을 강조하는 것이 좋습니다.
+2. **면접 준비**: 일부 모집단위에서는 면접을 실시할 수 있으니, 이에 대비하여 지원 동기와 학업 계획 등을 명확하게 준비해두세요.
+3. **서류평가**: 서류 평가에서도 학생부교과 성적 외에도 출결, 행동특성 등 다양한 요소를 종합적으로 평가하므로, 이 부분도 잘 준비하는 것이 중요합니다.
+4. **추천서**: 일부 모집단위에서는 추천서 제출을 요구할 수 있으니, 해당 조건에 맞춰 준비해두세요.
+5. **면접 질문 공통문항**: 면접 시 지원 동기와 학업 계획 등이 포함될 가능성이 있으므로, 이 부분에 대해 미리 대비해보는 것이 좋습니다.
+자기소개서가 필요 없는 수능 위주 전형에서라도, 지원자의 학업 역량과 전공 적합성을 잘 보여줄 수 있는 방법들을 활용하여 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.5885059833526611</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 수준입니다. 하지만 추가모집에 합격할 확률을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. 모집단위와 경쟁률:
+   - 지원하고자 하는 단과대학 및 모집단위의 경쟁률
+   - 해당 모집단위에서 4.5 점수로 합격한 이력이 있는지
+2. 지원 자격:
+   - 고교 유형별 지원 자격 여부 (일반고, 특성화고 등)
+   - 전형명 (실기/실적, 수능, 학생부종합 등)
+3. 추가모집의 특징:
+   - 모집인원과 지원 인원
+   - 충원 합격자 수
+4. 기타 요소:
+   - 영어 등급
+   - 탐구 과목 성적
+   - 다른 전형에서의 성적 (예: 학생부종합)
+현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 동의대학교의 공식 입학정보나 추가모집 안내를 확인하시고, 해당 모집단위의 경쟁률과 지원 인원 등을 파악하신 후 결정하시는 것이 좋겠습니다.
+추가로, 동의대학교의 입학 홈페이지나 총장실에서 제공하는 정보를 참고하거나, 학교 관계자에게 직접 문의해보는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.8770085573196411</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과와 분자나노공학과의 경우, 모집인원은 총 56명이고 지원 인원은 81명으로 경쟁률이 1.45를 기록하였습니다. 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 271.64로, 이는 상대적으로 낮은 경쟁률을 보이는 반면에도 꽤 높은 평균 점수가 나타났습니다.
+이러한 정보만으로 정확한 등급 예측을 하기는 어렵지만, 일반적으로 동의대학교 신소재공학과와 분자나노공학과는 중등에서 상위권의 성적을 요구하는 경향이 있습니다. 따라서 대략적인 추정치로는 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균인 378.15 정도를 넘어야 하는 것으로 예상할 수 있습니다.
+하지만 이는 단순 예측이며, 실제 합격 가능 등급은 여러 요소에 따라 달라질 수 있으므로, 최종적인 합격 가능성 확인을 위해서는 동의대학교 입학처나 공식 홈페이지에서 제공하는 자세한 정보를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.7262961268424988</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 정시 모집에서 동의대학교 신소재공학과의 경쟁률과 충원 합격자들의 표준점수를 고려해보겠습니다.
+1. **신소재공학과의 경쟁률 및 충원 합격자 정보**:
+   - 2024년 모집인원: 32명
+   - 지원 인원: 85명 (경쟁률 2.66)
+   - 충원 합격 (후보순위): 17명
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균: 340.85
+   - 영어 등급 평균: 4.69
+2. **당신의 표준점수**:
+   - 표준점수: 447
+3. **분석**:
+   - 작년 신소재공학과의 최종 평균 점수가 448점이었다면, 당신의 447점은 약간 낮습니다.
+   - 그러나 경쟁률이 작년보다 높아졌고, 지원 인원도 많아졌기 때문에, 작년보다 낮은 표준점수로 충원 합격하는 가능성은 있습니다.
+4. **가능성**:
+   - **경쟁률 증가**: 2023년 경쟁률이 1.98에서 2024년 2.66으로 상승했기 때문에, 점수가 약간 낮더라도 충원 합격 가능성은 있습니다.
+   - **지원 인원 증가**: 지원 인원이 작년보다 많아졌기 때문에, 표준점수는 작년보다 낮아져야 하는 경향이 있습니다.
+5. **결론**:
+   - 당신의 447점은 작년 최종 평균 점수(448)보다 약간 낮지만, 경쟁률과 지원 인원 증가로 인해 충원 합격 가능성은 있습니다.
+   - 그러나 확실한 것은 아니며, 입학사정관의 판단과 기타 요인들에 따라 결정될 수 있으므로, 최선을 다해 준비하시기 바랍니다.
+이러한 분석을 바탕으로 당신의 447점이 충원 합격 가능성은 있지만, 확실하지는 않습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.7665863037109375</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.1~4.2 등급으로 동의대학교 신소재공학과에 지원하려면, 몇 가지 요인들을 고려해야 합니다:
+1. **성적 기준**: 신소재공학과는 일반적으로 높은 성적이 요구되므로, 현재 예상 점수가 조금 낮아 보입니다.
+2. **모집단위와 전형요소**: 동의대학교의 수능(일반학생전형) 모집단위에서 신소재공학과는 다음과 같은 기준을 따릅니다:
+   - 수능 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2
+3. **예상 성적**: 
+   - 국어: 104
+   - 수학(미적분): 108
+   - 영어: 4등급 (대략 95)
+   - 탐구: 물리Ⅰ 47, 화학Ⅰ 59
+   이 기준으로 합산하면:
+   - 국어 + 수학(미적분) + 영어 등급점수 + 탐구 표준점수
+   - (104 + 108 + 95 + 47 + 59) / 2 = 313 / 2 = 156.5
+4. **성적 평균**: 동의대학교 신소재공학과의 최근 입학생 성적을 참고하면, 대략 160~165 정도가 필요합니다.
+따라서 현재 예상 점수로는 약간 부족할 수 있습니다. 하지만 다음과 같은 방법들을 고려해볼 수 있습니다:
+- **추가 학습**: 마지막 순간에 집중해서 영어 등급을 높이거나 탐구 과목의 표준점수를 향상시킬 수 있습니다.
+- **자기소개서와 면접 준비**: 성적이 조금 부족하다면, 자기소개서와 면접에서 자신의 열정과 적합성을 강조하는 것이 중요합니다.
+결론적으로, 현재 예상 점수로는 약간 위험할 수 있지만, 추가적인 노력과 잘 준비한다면 가능성이 있습니다. 하지만 확실한 보장은 아니므로, 다른 대학이나 전형을 함께 고려해보는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.7627004384994507</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 나군 수능 일반학생전형에 대한 최종 등록자들의 성적 정보를 정리해보겠습니다:
+- 모집인원 : 15명
+- 지원인원 : 78명 
+- 경쟁률 : 5.20
+성적 통계:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균 : 431.60
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 표준 편차 : 7.58
+- 영어 등급 평균 : 4.09
+- 영어 등급 표준 편차 : 1.03
+- 수능 4개 영역 등급 평균 : 4.62
+- 수능 4개 영역 등급 표준 편차 : 0.58
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균 : 571.33
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 표준 편차 : 8.69
+이 정보를 참고하시면 도움이 될 것 같습니다. 하지만 개인의 성적과 경쟁률, 모집인원 등 여러 요인이 함께 고려되어야 하므로 정확한 합격 가능성을 판단하기 위해서는 추가적인 정보가 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.8529341816902161</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 점수는 상당히 높은 점수입니다. 하지만 실제로 어떤 학과에 지원할 수 있는지는 여러 요소에 따라 달라집니다:
+1. **모집단위와 전형 유형**: 각 모집단위별로 수능 반영 영역과 가산점이 다르므로, 정확한 판단을 위해서는 해당 모집단위의 특성을 확인해야 합니다.
+2. **수능 성적 반영 방식**:
+   - 일반적으로 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%로 반영됩니다.
+   - 일부 모집단위에서는 수학에 가산점이 부여될 수 있습니다.
+3. **모집인원과 지원자 수**: 경쟁률이 높은 학과는 낮은 점수라도 충원 가능할 수 있지만, 경쟁률이 낮은 학과는 높은 점수가 필요할 수 있습니다.
+4. **기타 요소**: 면접 성적, 서류 평가 결과 등도 고려됩니다.
+5. **예시**:
+   - 국어 108 + 수학(미적분) 108 + 영어 123 + 탐구 47 (사회탐구) = 469
+   - 이 점수로 경쟁률이 낮은 학과는 충원 가능할 수 있습니다.
+따라서, 5.27이라는 성적으로 추합 가능한지는 모집단위와 전형 유형에 따라 달라집니다. 정확한 판단을 위해서는 해당 모집단위의 특성을 확인하고, 실제 지원할 수 있는 학과를 파악하는 것이 중요합니다.
+추천 사항:
+1. **모집단위별 특성** 확인: 지원하고자 하는 모집단위의 수능 반영 영역과 가산점 등을 확인해야 합니다.
+2. **실제 성적 산출**: 제공된 예시와 비슷한 점수로 실제 성적을 산출해보세요.
+3. **동점자 처리 기준** 확인: 해당 모집단위의 동점자 처리 기준을 확인하여, 실질적으로 충원 가능한 학과를 파악합니다.
+이 정보를 바탕으로 더 정확한 판단을 내릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.7151901721954346</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 상당히 높은 수준입니다. 하지만 소프트웨어공학부에 지원할 때 다음과 같은 요소들을 고려해야 합니다:
+1. **전형방법**: 
+   - 일반학생전형에서는 수능과 교과 성적이 모두 반영됩니다.
+   - 가산점이 적용되는 경우도 있으니, 수학(미적분 또는 기하)을 응시한 경우 10%의 가산점을 받을 수 있습니다.
+2. **성적 산출방법**:
+   - 국어(화법과작문 또는 언어와매체): 25%
+   - 수학(확률과통계 또는 미적분 또는 기하): 25%
+   - 영어: 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합): 25%
+3. **성적 예시**:
+   - 국어 표준점수: 104
+   - 수학 표준점수 (미적분/기하): 108
+   - 영어 등급 점수: 115 (4등급)
+   - 탐구 과목 표준점수: 47, 59
+4. **가산점**:
+   - 수학(미적분 또는 기하) 응시자인 경우, 수학 취득 표준점수의 10% 가산점을 받을 수 있습니다.
+5. **모집단위와 인원**:
+   - 소프트웨어공학부는 정원 내 모집 인원이 많으므로 경쟁률이 높을 수 있습니다.
+   - 나군 일반 학생 모집인원은 45명입니다.
+6. **전형요소 반영비율**:
+   - 실기/실적(경기실적우수자전형): 학생부교과18%+출결12%+서류(실적)70%
+   - 학생부종합(조기취업형계약학과전형): 서류(학생부)60%+면접40%
+따라서, 4.2라는 점수는 좋은 성적이지만, 경쟁률이 높은 소프트웨어공학부에 지원할 때 다음과 같은 전략을 고려해볼 수 있습니다:
+- **교과성적 향상**: 가능한 한 더 높은 교과 성적을 유지하거나 향상시키는 것이 중요합니다.
+- **면접 준비**: 면접에서도 좋은 성적을 받기 위해 충분히 준비해야 합니다. 학업역량, 전공적합성 등에 대해 잘 준비해두세요.
+- **추천서 및 자기소개서**: 추천서와 자기소개서를 통해 자신의 장점을 강조할 수 있습니다.
+결론적으로 4.2라는 점수는 가능성이 있지만, 경쟁률이 높아 확실한 입학을 보장하지는 않습니다. 최선을 다해 준비하고, 여러 전략을 활용하여 지원 결과를 최대한 좋게 만들기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.6398442983627319</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **东义大学的录取标准**：通常情况下，东义大学会根据学生的高考成绩（国语、数学、英语和综合科目）进行排名。不同专业的录取分数线可能会有所不同。
+2. **你的成绩情况**：你提到的成绩是3.92，这相当于高考英语等级6级（107分）。但是，你需要提供完整的四门科目的标准分数来计算总分。
+3. **各专业具体的录取要求**：不同专业的具体录取分数线会有所差异。例如，一些理工类专业可能会有较高的数学和综合科目要求，而文科类专业则可能对国语和英语的要求较高。
+假设你的成绩如下：
+- 国语：104
+- 数学（微积分）：108
+- 英语等级：6级 (107)
+- 综合科目（如物理I、化学I等）：平均分
+我们可以计算总分。但是，由于你只提供了英语成绩，请提供其他科目的标准分数以便我们进行更准确的评估。
+假设你的综合科目平均分为50分，则：
+\[ 104 + 108 + 107 + 50 = 369 \]
+根据东义大学以往的录取数据，不同专业的分数线如下（仅供参考）：
+- **国语、数学、英语和综合科目的总分**：一般理工类专业要求在350分以上。
+- **英语等级**：通常要求至少4级及以上。
+假设你提供的成绩是准确的，并且你的综合科目平均分符合学校的要求，那么你的总分369分应该可以满足大多数理工类专业的录取标准。但是具体是否能够被化工环境工程学部录取还需要参考该专业当年的具体分数线。
+建议：
+1. 确认你所有科目的标准分数。
+2. 查看东义大学化工环境工程学部当年的录取分数线。
+3. 如果不确定，可以咨询学校招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.4173687100410461</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학공학과(화학환경공학부)에 지원하시려면, 수능 일반학생전형을 통해 지원할 수 있습니다. 하지만 성적만으로 결정되는 것은 아닙니다. 다음 사항들을 확인해 보세요:
+1. **모집단위와 모집인원**: 화학공학과는 공과대학의 학과로 분류되므로, 해당 부문에 대한 정보를 참조해야 합니다.
+2. **성적 반영방법**:
+   - 수능 성적은 국어(화법과작문 또는 언어와매체), 수학(확률과통계 또는 미적분 또는 기하), 영어, 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합)의 4개 영역을 반영합니다.
+   - 가산점은 수학(미적분 또는 기하) 응시자에게만 적용됩니다.
+3. **성적 평균 및 경쟁률**:
+   - 화학공학과의 성적이 4.25로, 이는 좋은 성적입니다.
+   - 하지만 경쟁률이 높은 학과일 수 있으므로, 다른 지원자의 성적을 고려해야 합니다.
+4. **전형요소 반영비율**:
+   - 일반학생전형의 경우, 수능 성적이 100% 반영됩니다.
+5. **최종 등록자 성적 분석**:
+   - 화학공학과의 최종 등록자의 평균 성적을 확인해 보세요. 예를 들어, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 378.15이고, 표준 편차가 24.99일 때, 4.25는 상당히 높은 성적입니다.
+6. **서류 및 면접**:
+   - 서류평가와 면접 평가도 중요합니다. 학생부종합 평가 영역(공동체역량, 학업역량, 전공적합성)을 잘 준비해야 합니다.
+7. **면접 점수**:
+   - 면접 점수가 높은 경우 경쟁력을 높일 수 있습니다.
+따라서 4.25의 성적이 좋은데, 화학공학과는 경쟁률이 높을 수 있으므로 추가적인 준비가 필요합니다. 서류와 면접에서도 최선을 다해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.6744189858436584</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2이라는 점수는 일반적으로 좋은 성적입니다만, 정시 합격 여부는 여러 요소에 따라 달라집니다:
+1. 모집인원과 지원자 수: 영화학과의 모집인원과 실제 지원자의 수가 중요합니다.
+2. 전형방법: 실기/실적 위주인지 수능 위주인지 등이 결정적입니다.
+3. 실기 성적: 특히 실기 위주로 평가되는 경우, 실기 점수가 합격에 큰 영향을 줍니다.
+4. 모집단위 별 차이: 각 모집단위별 전형요소 반영비율과 기준이 다를 수 있습니다.
+5. 경쟁률: 최근 몇 년간의 정시 경쟁률을 고려해야 합니다.
+6. 학교 특성: 일부 대학은 특정 분야에서 우수한 성적보다 실력이나 창의성이 더 중요할 수 있습니다.
+현재 정보만으로는 확실한 답변이 어렵습니다. 하지만 4.2라는 점수는 좋은 기반을 제공합니다. 
+추천 사항:
+- 모집단위별 전형요소 반영비율과 기준을 꼼꼼히 확인하세요.
+- 실기 성적도 잘 준비해 두세요.
+- 경쟁률을 고려하고, 다른 대안도 미리 준비하는 것이 좋습니다.
+정확한 합격 가능성을 알기 위해서는 해당 대학의 정시 모집요강과 전형방법 등을 자세히 확인하시고, 입학처에 문의하시는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.6547608375549316</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的中文翻译：
+韩国语原文：
+나군 학생부종합(조기취업형계약학과전형) 면접평가 방법에서 구분은 면접절차이며, 내용은 
+①대기실 입실 ⇨ 
+②신분 확인 ⇨ 
+③고사장 앞 이동 ⇨ 
+④고사장 입실 ⇨ 
+⑤지원동기 및 학업계획 발표 ⇨ 
+⑥학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 ⇨ 
+⑦기타 질의응답(제출서류 진위 여부 등) ⇨ 
+⑧퇴실이다.
+根据韩国语原文，面试流程如下：
+1. 进入候考室
+2. 身份确认
+3. 移动到考场前
+4. 进入考场
+5. 发表个人动机和学业计划
+6. 讲述与学业能力、专业适应性相关的共同问题并回答提问
+7. 其他质询（如提交文件的真实性等）
+8. 离场</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.7356039881706238</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.8070536926388741</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.7551574563980102</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.7276983225345611</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.7811055745184422</v>
+      <c r="D305" t="n">
+        <v>0.7633031571904818</v>
       </c>
     </row>
   </sheetData>
